--- a/5.테이블정의서 4조.xlsx
+++ b/5.테이블정의서 4조.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="5" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="전체 테이블" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>서울시 용산구 소월로 322, 서울, 대한민국, 04347</t>
   </si>
@@ -1757,6 +1757,45 @@
   </si>
   <si>
     <t>공항ID</t>
+  </si>
+  <si>
+    <t>도착시간</t>
+  </si>
+  <si>
+    <t>DEP_LOCATION</t>
+  </si>
+  <si>
+    <t>DEP_DATE</t>
+  </si>
+  <si>
+    <t>DEP_TIME</t>
+  </si>
+  <si>
+    <t>LAND_TIME</t>
+  </si>
+  <si>
+    <t>ARR_TIME</t>
+  </si>
+  <si>
+    <t>ARRIVE_TIME</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>MILEAGE</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
   </si>
 </sst>
 </file>
@@ -3242,10 +3281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -3751,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>355</v>
@@ -3778,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>356</v>
@@ -3800,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>357</v>
@@ -3828,7 +3867,7 @@
         <v>358</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
@@ -3846,10 +3885,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>130</v>
@@ -3861,39 +3900,41 @@
         <v>38</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>7</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F34" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3">
         <v>8</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>130</v>
@@ -3906,138 +3947,134 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="32"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="33"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.250000">
-      <c r="A38" s="42" t="s">
+      <c r="A36" s="3">
+        <v>9</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="33"/>
+    </row>
+    <row r="39" spans="1:8" ht="17.250000">
+      <c r="A39" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="5">
-        <v>44818</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
+        <v>18</v>
+      </c>
+      <c r="D40" s="5">
+        <v>44818</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="66"/>
+        <v>54</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="3">
-        <v>1</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>28</v>
@@ -4049,23 +4086,25 @@
         <v>40</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>40</v>
@@ -4075,19 +4114,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3">
-        <v>4</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>325</v>
+        <v>3</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>253</v>
+      <c r="E46" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>40</v>
@@ -4097,19 +4136,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>326</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>40</v>
@@ -4119,19 +4158,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3">
-        <v>6</v>
-      </c>
-      <c r="B48" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>330</v>
-      </c>
-      <c r="D48" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>75</v>
+      <c r="E48" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>40</v>
@@ -4139,158 +4178,152 @@
       <c r="G48" s="2"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="17.250000">
-      <c r="A51" s="42" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="53" spans="1:8" ht="17.250000">
+      <c r="A53" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="44"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="5">
-        <v>44818</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="47"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="50"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>333</v>
-      </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="66"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="5">
+        <v>44818</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="47"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="50"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="66"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3">
-        <v>1</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="3">
-        <v>2</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3">
-        <v>3</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>245</v>
+        <v>1</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>13</v>
@@ -4298,42 +4331,46 @@
       <c r="F58" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="H58" s="4" t="s">
-        <v>292</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3">
-        <v>4</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>245</v>
+        <v>2</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>13</v>
+        <v>269</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>245</v>
@@ -4345,17 +4382,19 @@
         <v>40</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>245</v>
@@ -4363,19 +4402,21 @@
       <c r="E61" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>245</v>
@@ -4383,9 +4424,51 @@
       <c r="E62" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3">
+        <v>6</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="3">
+        <v>7</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4398,12 +4481,12 @@
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="E24:H25"/>
     <mergeCell ref="B26:H26"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="E52:H53"/>
-    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="E54:H55"/>
+    <mergeCell ref="B56:H56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/5.테이블정의서 4조.xlsx
+++ b/5.테이블정의서 4조.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t>서울시 용산구 소월로 322, 서울, 대한민국, 04347</t>
   </si>
@@ -1796,6 +1796,15 @@
   </si>
   <si>
     <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>취소여부</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
   </si>
 </sst>
 </file>
@@ -3281,10 +3290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A46" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -4469,6 +4478,26 @@
       <c r="F64" s="4"/>
       <c r="G64" s="2"/>
       <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="3">
+        <v>8</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/5.테이블정의서 4조.xlsx
+++ b/5.테이블정의서 4조.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>서울시 용산구 소월로 322, 서울, 대한민국, 04347</t>
   </si>
@@ -1805,6 +1805,9 @@
   </si>
   <si>
     <t>VARCHAR2(10)</t>
+  </si>
+  <si>
+    <t>잔여좌석</t>
   </si>
 </sst>
 </file>
@@ -3290,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A30" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -3307,7 +3310,7 @@
     <col min="7" max="7" style="7" width="11.75500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.250000">
+    <row r="1" spans="1:13" ht="17.250000">
       <c r="A1" s="54" t="s">
         <v>50</v>
       </c>
@@ -3319,7 +3322,7 @@
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="5">
-        <v>44818</v>
+        <v>44824</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>296</v>
@@ -3339,7 +3342,7 @@
       <c r="G2" s="56"/>
       <c r="H2" s="57"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -3357,7 +3360,7 @@
       <c r="G3" s="59"/>
       <c r="H3" s="60"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -3371,7 +3374,7 @@
       <c r="G4" s="62"/>
       <c r="H4" s="63"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:13">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -3441,395 +3444,412 @@
       <c r="G7" s="2"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="32"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.250000">
+      <c r="A11" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44824</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="17" customFormat="1">
+      <c r="A16" s="41">
+        <v>1</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="32"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.250000">
-      <c r="A12" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5">
-        <v>44818</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" s="17" customFormat="1">
       <c r="A17" s="41">
-        <v>1</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="17" customFormat="1">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="41">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.250000">
-      <c r="A23" s="54" t="s">
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.250000">
+      <c r="A22" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44824</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>320</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="5">
-        <v>44818</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
+        <v>49</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>27</v>
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>344</v>
+        <v>382</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>355</v>
+        <v>383</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>356</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>28</v>
@@ -3845,35 +3865,37 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="15" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>130</v>
@@ -3885,19 +3907,17 @@
         <v>38</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="15" t="s">
-        <v>292</v>
-      </c>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>386</v>
+        <v>300</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>130</v>
@@ -3909,41 +3929,39 @@
         <v>38</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>130</v>
@@ -3957,13 +3975,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>130</v>
@@ -3972,7 +3990,9 @@
         <v>290</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2">
+        <v>24</v>
+      </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8">
@@ -4008,7 +4028,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="5">
-        <v>44818</v>
+        <v>44824</v>
       </c>
       <c r="E40" s="45" t="s">
         <v>142</v>
@@ -4135,7 +4155,7 @@
         <v>28</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>40</v>
@@ -4254,7 +4274,7 @@
         <v>18</v>
       </c>
       <c r="D54" s="5">
-        <v>44818</v>
+        <v>44824</v>
       </c>
       <c r="E54" s="45" t="s">
         <v>331</v>
@@ -4499,17 +4519,27 @@
       <c r="G65" s="2"/>
       <c r="H65" s="4"/>
     </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="0"/>
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="0"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="E24:H25"/>
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="E23:H24"/>
+    <mergeCell ref="B25:H25"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="E40:H41"/>
     <mergeCell ref="B42:H42"/>
